--- a/docs/Zustandsänderung bei Ereignis.xlsx
+++ b/docs/Zustandsänderung bei Ereignis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Source\PyCharm\tichu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E0802C-FADF-4C96-A259-006B687E73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881DE465-D66C-4732-B765-9CCFF28EC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BC75ECD-E1E1-466C-BCC4-4B4A67D93578}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>player_names</t>
   </si>
@@ -134,13 +134,7 @@
     <t>hand_cards_dealt</t>
   </si>
   <si>
-    <t>player_grand_announced</t>
-  </si>
-  <si>
     <t>player_announced</t>
-  </si>
-  <si>
-    <t>schupf_cards_dealt</t>
   </si>
   <si>
     <t>player_passed</t>
@@ -185,6 +179,9 @@
     <t>Zustandsänderung
 in Abhängigkeit 
 der Ereignisse</t>
+  </si>
+  <si>
+    <t>start_playing</t>
   </si>
 </sst>
 </file>
@@ -565,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A887DA5-6B1E-4A82-93E5-60783FED0A89}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -582,7 +579,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="122.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -668,7 +665,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1082,18 +1079,18 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1110,13 +1107,17 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1144,12 +1145,8 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
@@ -1159,8 +1156,12 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
@@ -1182,22 +1183,24 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1216,35 +1219,47 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1252,13 +1267,15 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1308,41 +1325,27 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1350,15 +1353,13 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1392,7 +1393,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1402,23 +1403,35 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -1426,45 +1439,33 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="2">
-        <v>1</v>
-      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -1472,17 +1473,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1493,13 +1490,25 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -1508,11 +1517,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1525,65 +1536,19 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Zustandsänderung bei Ereignis.xlsx
+++ b/docs/Zustandsänderung bei Ereignis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Source\PyCharm\tichu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881DE465-D66C-4732-B765-9CCFF28EC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E93AA-7CF7-463B-9E2A-F8422ED67E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BC75ECD-E1E1-466C-BCC4-4B4A67D93578}"/>
   </bookViews>
@@ -568,7 +568,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:A15"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1280,7 +1280,9 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <v>1</v>
